--- a/medicine/Psychotrope/Belgian_Beer_of_Wallonia/Belgian_Beer_of_Wallonia.xlsx
+++ b/medicine/Psychotrope/Belgian_Beer_of_Wallonia/Belgian_Beer_of_Wallonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Belgian Beer of Wallonia en français : « Bière belge de Wallonie » est un label pour une bière belge brassée en région wallonne et faisant l'objet d'une protection accordée par l'Agence wallonne pour la promotion d'une agriculture de qualité (APAQ-W).
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La création de cette appellation en 2015 est une prolongation du Concours bisannuel (années paires) Best Belgian Beer of Wallonia existant depuis 2012[1] qui visait déjà à mettre en évidence la qualité et la diversité des bières régionales wallonnes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La création de cette appellation en 2015 est une prolongation du Concours bisannuel (années paires) Best Belgian Beer of Wallonia existant depuis 2012 qui visait déjà à mettre en évidence la qualité et la diversité des bières régionales wallonnes.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Logo</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le logo est représenté sous la forme d'un disque noir contenant trois cuves de fermentation de couleurs jaune, rouge et brune au-dessus de l'appellation Belgian Beer of Wallonia.
 </t>
@@ -574,7 +590,9 @@
           <t>Conditions d'admissibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Parmi les conditions d'admissibilité, une bière Belgian Beer of Wallonia doit :
 être brassée dans une brasserie dont le ou les siège(s) d’exploitation  doi(ven)t être situé(s) en Wallonie;
@@ -607,7 +625,9 @@
           <t>Membres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>20 brasseries wallonnes produisent des bières sous la protection du label Belgian Beer of Wallonia.
 Liste au 1er juillet 2016 :
